--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leasc\OneDrive\Documents\EPFL\Master\MA2\Controlling behavior in animal and robots\Project\Code\CobarProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDF9F54-F6CA-4E03-A998-AFB339F238B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6779CA-DE17-4F71-BE11-15405272391B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9230" yWindow="0" windowWidth="9980" windowHeight="10010" xr2:uid="{8FFB9902-D803-448A-985E-B2FD701F6185}"/>
   </bookViews>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4765A312-F5D3-4217-BF88-7942892C5E57}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,7 +484,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -496,7 +496,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -522,13 +522,13 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -548,7 +548,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -583,16 +583,16 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -603,10 +603,10 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
